--- a/resource/excel/skill.xlsx
+++ b/resource/excel/skill.xlsx
@@ -1185,7 +1185,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
